--- a/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
+++ b/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTTOPro\trunk\03_Testing\QA_Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTTOPro\OTTOPro\trunk\03_Testing\QA_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,10 +43,10 @@
     <definedName name="Z_E30A8905_2B28_4BD2_9BAF_B93EE050ACC4_.wvu.FilterData" localSheetId="0" hidden="1">Scenarios!$A$1:$L$189</definedName>
     <definedName name="Z_E890EB7A_B99F_4AA6_95E2_89DC742A5A72_.wvu.FilterData" localSheetId="0" hidden="1">Scenarios!$A$1:$L$174</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1808,6 +1808,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2172,14 +2173,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2190,14 +2191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2990,11 +2991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="193319496"/>
-        <c:axId val="205319976"/>
+        <c:axId val="759515560"/>
+        <c:axId val="759515952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193319496"/>
+        <c:axId val="759515560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205319976"/>
+        <c:crossAx val="759515952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3045,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205319976"/>
+        <c:axId val="759515952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193319496"/>
+        <c:crossAx val="759515560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,8 +4031,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4082,16 +4083,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4110,10 +4111,10 @@
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="33" t="s">
         <v>150</v>
       </c>
@@ -4130,10 +4131,10 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="33" t="s">
         <v>150</v>
       </c>
@@ -4150,10 +4151,10 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="33" t="s">
         <v>150</v>
       </c>
@@ -4172,10 +4173,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="33" t="s">
         <v>150</v>
       </c>
@@ -4192,10 +4193,10 @@
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="33" t="s">
         <v>150</v>
       </c>
@@ -4212,10 +4213,10 @@
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="33" t="s">
         <v>150</v>
       </c>
@@ -4232,10 +4233,10 @@
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="33" t="s">
         <v>150</v>
       </c>
@@ -4254,10 +4255,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4276,10 +4277,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4296,10 +4297,10 @@
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4316,10 +4317,10 @@
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4336,10 +4337,10 @@
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="33" t="s">
         <v>150</v>
       </c>
@@ -4356,10 +4357,10 @@
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="33" t="s">
         <v>150</v>
       </c>
@@ -4376,10 +4377,10 @@
       <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="33" t="s">
         <v>150</v>
       </c>
@@ -4396,10 +4397,10 @@
       <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="33" t="s">
         <v>150</v>
       </c>
@@ -4416,10 +4417,10 @@
       <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="33" t="s">
         <v>150</v>
       </c>
@@ -4436,10 +4437,10 @@
       <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="33" t="s">
         <v>150</v>
       </c>
@@ -4456,10 +4457,10 @@
       <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="33" t="s">
         <v>150</v>
       </c>
@@ -4476,10 +4477,10 @@
       <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="33" t="s">
         <v>150</v>
       </c>
@@ -4496,10 +4497,10 @@
       <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="33" t="s">
         <v>150</v>
       </c>
@@ -4516,10 +4517,10 @@
       <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="33" t="s">
         <v>150</v>
       </c>
@@ -4644,16 +4645,16 @@
       <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
+      <c r="A29" s="58">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="58" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -4672,10 +4673,10 @@
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="33" t="s">
         <v>147</v>
       </c>
@@ -4694,10 +4695,10 @@
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="33" t="s">
         <v>147</v>
       </c>
@@ -4716,10 +4717,10 @@
       <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="33" t="s">
         <v>147</v>
       </c>
@@ -4738,10 +4739,10 @@
       <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="33" t="s">
         <v>147</v>
       </c>
@@ -4760,10 +4761,10 @@
       <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="33" t="s">
         <v>147</v>
       </c>
@@ -4782,10 +4783,10 @@
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="33" t="s">
         <v>147</v>
       </c>
@@ -4804,10 +4805,10 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="33" t="s">
         <v>147</v>
       </c>
@@ -4826,10 +4827,10 @@
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="33" t="s">
         <v>147</v>
       </c>
@@ -4848,10 +4849,10 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33" t="s">
         <v>147</v>
       </c>
@@ -4870,10 +4871,10 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33" t="s">
         <v>147</v>
       </c>
@@ -4892,10 +4893,10 @@
       <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="33" t="s">
         <v>147</v>
       </c>
@@ -4914,10 +4915,10 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="33" t="s">
         <v>147</v>
       </c>
@@ -4936,10 +4937,10 @@
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="33" t="s">
         <v>147</v>
       </c>
@@ -4958,10 +4959,10 @@
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="33" t="s">
         <v>147</v>
       </c>
@@ -4980,10 +4981,10 @@
       <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="33" t="s">
         <v>147</v>
       </c>
@@ -5000,10 +5001,10 @@
       <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="33" t="s">
         <v>147</v>
       </c>
@@ -5020,10 +5021,10 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="33" t="s">
         <v>147</v>
       </c>
@@ -5042,10 +5043,10 @@
       <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="33" t="s">
         <v>147</v>
       </c>
@@ -5064,10 +5065,10 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="33" t="s">
         <v>147</v>
       </c>
@@ -5086,10 +5087,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="33" t="s">
         <v>147</v>
       </c>
@@ -5108,10 +5109,10 @@
       <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33" t="s">
         <v>147</v>
       </c>
@@ -5128,10 +5129,10 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="33" t="s">
         <v>147</v>
       </c>
@@ -5148,10 +5149,10 @@
       <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="33" t="s">
         <v>147</v>
       </c>
@@ -5168,10 +5169,10 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="33" t="s">
         <v>147</v>
       </c>
@@ -5188,10 +5189,10 @@
       <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="33" t="s">
         <v>147</v>
       </c>
@@ -5208,10 +5209,10 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="33" t="s">
         <v>147</v>
       </c>
@@ -5228,16 +5229,16 @@
       <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="A56" s="58">
         <v>3</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="33" t="s">
@@ -5256,10 +5257,10 @@
       <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="33" t="s">
         <v>149</v>
       </c>
@@ -5276,10 +5277,10 @@
       <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="33" t="s">
         <v>149</v>
       </c>
@@ -5296,10 +5297,10 @@
       <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="33" t="s">
         <v>149</v>
       </c>
@@ -5320,10 +5321,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="33" t="s">
         <v>149</v>
       </c>
@@ -5342,10 +5343,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="33" t="s">
         <v>149</v>
       </c>
@@ -5364,10 +5365,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="33" t="s">
         <v>149</v>
       </c>
@@ -5390,7 +5391,7 @@
       <c r="B63" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="61" t="s">
@@ -5414,7 +5415,7 @@
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="65"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="62"/>
       <c r="E64" s="36" t="s">
         <v>33</v>
@@ -5434,7 +5435,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="62"/>
-      <c r="C65" s="65"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="62"/>
       <c r="E65" s="36" t="s">
         <v>33</v>
@@ -5454,7 +5455,7 @@
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="63"/>
-      <c r="C66" s="66"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="63"/>
       <c r="E66" s="36" t="s">
         <v>33</v>
@@ -5478,7 +5479,7 @@
       <c r="B67" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="58" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="61" t="s">
@@ -5504,7 +5505,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="65"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="62"/>
       <c r="E68" s="36" t="s">
         <v>148</v>
@@ -5524,7 +5525,7 @@
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="62"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="62"/>
       <c r="E69" s="36" t="s">
         <v>148</v>
@@ -5544,7 +5545,7 @@
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="62"/>
-      <c r="C70" s="65"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="62"/>
       <c r="E70" s="36" t="s">
         <v>148</v>
@@ -5564,7 +5565,7 @@
     <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
       <c r="B71" s="62"/>
-      <c r="C71" s="65"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="62"/>
       <c r="E71" s="36" t="s">
         <v>148</v>
@@ -5584,7 +5585,7 @@
     <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="65"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="62"/>
       <c r="E72" s="36" t="s">
         <v>148</v>
@@ -5604,7 +5605,7 @@
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="62"/>
-      <c r="C73" s="65"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="62"/>
       <c r="E73" s="36" t="s">
         <v>148</v>
@@ -5624,7 +5625,7 @@
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="65"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="62"/>
       <c r="E74" s="36" t="s">
         <v>148</v>
@@ -5644,7 +5645,7 @@
     <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="63"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="63"/>
       <c r="E75" s="36" t="s">
         <v>148</v>
@@ -5670,10 +5671,10 @@
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="64" t="s">
         <v>160</v>
       </c>
       <c r="E76" s="37" t="s">
@@ -5694,8 +5695,8 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="37" t="s">
         <v>151</v>
       </c>
@@ -5714,8 +5715,8 @@
     <row r="78" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="37" t="s">
         <v>151</v>
       </c>
@@ -5734,8 +5735,8 @@
     <row r="79" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="58" t="s">
+      <c r="C79" s="65"/>
+      <c r="D79" s="64" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="37" t="s">
@@ -5756,8 +5757,8 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="37" t="s">
         <v>151</v>
       </c>
@@ -5778,8 +5779,8 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
       <c r="E81" s="37" t="s">
         <v>151</v>
       </c>
@@ -5798,8 +5799,8 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
       <c r="E82" s="37" t="s">
         <v>151</v>
       </c>
@@ -5818,8 +5819,8 @@
     <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
       <c r="E83" s="37" t="s">
         <v>151</v>
       </c>
@@ -5840,8 +5841,8 @@
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="37" t="s">
         <v>151</v>
       </c>
@@ -5860,8 +5861,8 @@
     <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
       <c r="E85" s="37" t="s">
         <v>151</v>
       </c>
@@ -5882,8 +5883,8 @@
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
       <c r="E86" s="37" t="s">
         <v>151</v>
       </c>
@@ -5904,8 +5905,8 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
       <c r="E87" s="37" t="s">
         <v>151</v>
       </c>
@@ -5924,8 +5925,8 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="37" t="s">
         <v>151</v>
       </c>
@@ -5944,8 +5945,8 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
       <c r="E89" s="37" t="s">
         <v>151</v>
       </c>
@@ -5964,8 +5965,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
       <c r="E90" s="37" t="s">
         <v>151</v>
       </c>
@@ -5984,8 +5985,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
       <c r="E91" s="37" t="s">
         <v>151</v>
       </c>
@@ -6004,8 +6005,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
       <c r="E92" s="37" t="s">
         <v>151</v>
       </c>
@@ -6024,8 +6025,8 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="37"/>
       <c r="F93" s="4">
         <v>92</v>
@@ -6042,8 +6043,8 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
       <c r="E94" s="37" t="s">
         <v>151</v>
       </c>
@@ -6062,8 +6063,8 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
       <c r="E95" s="37" t="s">
         <v>151</v>
       </c>
@@ -6082,8 +6083,8 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
       <c r="E96" s="37" t="s">
         <v>151</v>
       </c>
@@ -6102,8 +6103,8 @@
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
       <c r="E97" s="37" t="s">
         <v>151</v>
       </c>
@@ -6122,8 +6123,8 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
       <c r="E98" s="37" t="s">
         <v>151</v>
       </c>
@@ -6142,8 +6143,8 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
       <c r="E99" s="37" t="s">
         <v>151</v>
       </c>
@@ -6164,8 +6165,8 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
       <c r="E100" s="37" t="s">
         <v>151</v>
       </c>
@@ -6184,8 +6185,8 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
       <c r="E101" s="37" t="s">
         <v>151</v>
       </c>
@@ -6204,8 +6205,8 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
       <c r="E102" s="37" t="s">
         <v>151</v>
       </c>
@@ -6224,8 +6225,8 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="60"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="37" t="s">
         <v>151</v>
       </c>
@@ -6244,7 +6245,7 @@
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="59"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="51" t="s">
         <v>160</v>
       </c>
@@ -6266,7 +6267,7 @@
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="59"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="51" t="s">
         <v>160</v>
       </c>
@@ -6288,7 +6289,7 @@
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="59"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="51" t="s">
         <v>160</v>
       </c>
@@ -6312,7 +6313,7 @@
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="59"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="51" t="s">
         <v>160</v>
       </c>
@@ -6336,7 +6337,7 @@
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="59"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="51" t="s">
         <v>160</v>
       </c>
@@ -6360,7 +6361,7 @@
     <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="59"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="51" t="s">
         <v>160</v>
       </c>
@@ -6384,7 +6385,7 @@
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="59"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="51" t="s">
         <v>160</v>
       </c>
@@ -6408,7 +6409,7 @@
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="59"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="51" t="s">
         <v>160</v>
       </c>
@@ -6430,7 +6431,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="59"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="4" t="s">
         <v>162</v>
       </c>
@@ -6454,7 +6455,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="59"/>
+      <c r="C113" s="65"/>
       <c r="D113" s="39" t="s">
         <v>164</v>
       </c>
@@ -6478,7 +6479,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="59"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="39" t="s">
         <v>164</v>
       </c>
@@ -6502,7 +6503,7 @@
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="59"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="39" t="s">
         <v>164</v>
       </c>
@@ -6524,7 +6525,7 @@
     <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="59"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="39" t="s">
         <v>164</v>
       </c>
@@ -6548,7 +6549,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="59"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="39" t="s">
         <v>164</v>
       </c>
@@ -6570,7 +6571,7 @@
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="59"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="39" t="s">
         <v>164</v>
       </c>
@@ -6594,7 +6595,7 @@
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="59"/>
+      <c r="C119" s="65"/>
       <c r="D119" s="39" t="s">
         <v>164</v>
       </c>
@@ -6618,7 +6619,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="59"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="39" t="s">
         <v>164</v>
       </c>
@@ -6642,7 +6643,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="59"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="39" t="s">
         <v>164</v>
       </c>
@@ -6666,7 +6667,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="59"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="39" t="s">
         <v>164</v>
       </c>
@@ -6690,7 +6691,7 @@
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="59"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="39" t="s">
         <v>164</v>
       </c>
@@ -6714,7 +6715,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="4" t="s">
         <v>167</v>
       </c>
@@ -6736,7 +6737,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="59"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="4" t="s">
         <v>167</v>
       </c>
@@ -6758,7 +6759,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="59"/>
+      <c r="C126" s="65"/>
       <c r="D126" s="4" t="s">
         <v>167</v>
       </c>
@@ -6780,7 +6781,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="59"/>
+      <c r="C127" s="65"/>
       <c r="D127" s="4" t="s">
         <v>167</v>
       </c>
@@ -6802,7 +6803,7 @@
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="59"/>
+      <c r="C128" s="65"/>
       <c r="D128" s="4" t="s">
         <v>167</v>
       </c>
@@ -6824,7 +6825,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="59"/>
+      <c r="C129" s="65"/>
       <c r="D129" s="4" t="s">
         <v>169</v>
       </c>
@@ -6846,7 +6847,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="59"/>
+      <c r="C130" s="65"/>
       <c r="D130" s="4" t="s">
         <v>169</v>
       </c>
@@ -6868,7 +6869,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="59"/>
+      <c r="C131" s="65"/>
       <c r="D131" s="4" t="s">
         <v>169</v>
       </c>
@@ -6890,7 +6891,7 @@
     <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="59"/>
+      <c r="C132" s="65"/>
       <c r="D132" s="4" t="s">
         <v>169</v>
       </c>
@@ -6912,7 +6913,7 @@
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="59"/>
+      <c r="C133" s="65"/>
       <c r="D133" s="4" t="s">
         <v>169</v>
       </c>
@@ -6934,7 +6935,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="59"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="4" t="s">
         <v>169</v>
       </c>
@@ -6958,7 +6959,7 @@
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="59"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="4" t="s">
         <v>169</v>
       </c>
@@ -6980,7 +6981,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="59"/>
+      <c r="C136" s="65"/>
       <c r="D136" s="4" t="s">
         <v>169</v>
       </c>
@@ -7002,7 +7003,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="59"/>
+      <c r="C137" s="65"/>
       <c r="D137" s="4" t="s">
         <v>176</v>
       </c>
@@ -7024,7 +7025,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="59"/>
+      <c r="C138" s="65"/>
       <c r="D138" s="4" t="s">
         <v>176</v>
       </c>
@@ -7046,7 +7047,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="59"/>
+      <c r="C139" s="65"/>
       <c r="D139" s="4" t="s">
         <v>176</v>
       </c>
@@ -7068,7 +7069,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="59"/>
+      <c r="C140" s="65"/>
       <c r="D140" s="4" t="s">
         <v>176</v>
       </c>
@@ -7090,7 +7091,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="59"/>
+      <c r="C141" s="65"/>
       <c r="D141" s="4" t="s">
         <v>182</v>
       </c>
@@ -7112,7 +7113,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="59"/>
+      <c r="C142" s="65"/>
       <c r="D142" s="4" t="s">
         <v>182</v>
       </c>
@@ -7134,7 +7135,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="59"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="4" t="s">
         <v>182</v>
       </c>
@@ -7156,7 +7157,7 @@
     <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="59"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="4" t="s">
         <v>182</v>
       </c>
@@ -7178,7 +7179,7 @@
     <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="59"/>
+      <c r="C145" s="65"/>
       <c r="D145" s="4" t="s">
         <v>182</v>
       </c>
@@ -7200,7 +7201,7 @@
     <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="60"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="4" t="s">
         <v>182</v>
       </c>
@@ -8265,7 +8266,9 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="37"/>
-      <c r="F195" s="4"/>
+      <c r="F195" s="4">
+        <v>194</v>
+      </c>
       <c r="G195" s="5"/>
       <c r="H195" s="10"/>
       <c r="I195" s="12"/>
@@ -12246,21 +12249,33 @@
   </sheetData>
   <autoFilter ref="A1:J194"/>
   <customSheetViews>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
+      <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+      <autoFilter ref="A1:L189"/>
+    </customSheetView>
     <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
       <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
-      <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
-      <autoFilter ref="A1:L189"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="D79:D103"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="C76:C146"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="B56:B62"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C2:C23"/>
@@ -12272,18 +12287,6 @@
     <mergeCell ref="A29:A55"/>
     <mergeCell ref="C29:C55"/>
     <mergeCell ref="D29:D55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="D79:D103"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="C76:C146"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -13279,11 +13282,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14064,13 +14067,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
+      <selection activeCell="A29" sqref="A29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
-      <selection activeCell="A29" sqref="A29"/>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>

--- a/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
+++ b/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
@@ -45,8 +45,8 @@
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <customWorkbookViews>
+    <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2173,14 +2173,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2191,14 +2191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2991,11 +2991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="759515560"/>
-        <c:axId val="759515952"/>
+        <c:axId val="311719064"/>
+        <c:axId val="311719456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="759515560"/>
+        <c:axId val="311719064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759515952"/>
+        <c:crossAx val="311719456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="759515952"/>
+        <c:axId val="311719456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759515560"/>
+        <c:crossAx val="311719064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4032,7 +4032,7 @@
   <dimension ref="A1:L581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,16 +4083,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4111,10 +4111,10 @@
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="33" t="s">
         <v>150</v>
       </c>
@@ -4131,10 +4131,10 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="33" t="s">
         <v>150</v>
       </c>
@@ -4151,10 +4151,10 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="33" t="s">
         <v>150</v>
       </c>
@@ -4173,10 +4173,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="33" t="s">
         <v>150</v>
       </c>
@@ -4193,10 +4193,10 @@
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="33" t="s">
         <v>150</v>
       </c>
@@ -4213,10 +4213,10 @@
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="33" t="s">
         <v>150</v>
       </c>
@@ -4233,10 +4233,10 @@
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="33" t="s">
         <v>150</v>
       </c>
@@ -4255,10 +4255,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4277,10 +4277,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4297,10 +4297,10 @@
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4317,10 +4317,10 @@
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4337,10 +4337,10 @@
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="33" t="s">
         <v>150</v>
       </c>
@@ -4357,10 +4357,10 @@
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="33" t="s">
         <v>150</v>
       </c>
@@ -4377,10 +4377,10 @@
       <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="33" t="s">
         <v>150</v>
       </c>
@@ -4397,10 +4397,10 @@
       <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="33" t="s">
         <v>150</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="33" t="s">
         <v>150</v>
       </c>
@@ -4437,10 +4437,10 @@
       <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="33" t="s">
         <v>150</v>
       </c>
@@ -4457,10 +4457,10 @@
       <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="33" t="s">
         <v>150</v>
       </c>
@@ -4477,10 +4477,10 @@
       <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="33" t="s">
         <v>150</v>
       </c>
@@ -4497,10 +4497,10 @@
       <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="33" t="s">
         <v>150</v>
       </c>
@@ -4517,10 +4517,10 @@
       <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="33" t="s">
         <v>150</v>
       </c>
@@ -4645,16 +4645,16 @@
       <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="64">
         <v>2</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="64" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -4673,10 +4673,10 @@
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="33" t="s">
         <v>147</v>
       </c>
@@ -4695,10 +4695,10 @@
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="33" t="s">
         <v>147</v>
       </c>
@@ -4717,10 +4717,10 @@
       <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="33" t="s">
         <v>147</v>
       </c>
@@ -4739,10 +4739,10 @@
       <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="33" t="s">
         <v>147</v>
       </c>
@@ -4761,10 +4761,10 @@
       <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="33" t="s">
         <v>147</v>
       </c>
@@ -4783,10 +4783,10 @@
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="33" t="s">
         <v>147</v>
       </c>
@@ -4805,10 +4805,10 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="33" t="s">
         <v>147</v>
       </c>
@@ -4827,10 +4827,10 @@
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="33" t="s">
         <v>147</v>
       </c>
@@ -4849,10 +4849,10 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="33" t="s">
         <v>147</v>
       </c>
@@ -4871,10 +4871,10 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="33" t="s">
         <v>147</v>
       </c>
@@ -4893,10 +4893,10 @@
       <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="33" t="s">
         <v>147</v>
       </c>
@@ -4915,10 +4915,10 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="33" t="s">
         <v>147</v>
       </c>
@@ -4937,10 +4937,10 @@
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="33" t="s">
         <v>147</v>
       </c>
@@ -4959,10 +4959,10 @@
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="33" t="s">
         <v>147</v>
       </c>
@@ -4981,10 +4981,10 @@
       <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="33" t="s">
         <v>147</v>
       </c>
@@ -5001,10 +5001,10 @@
       <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="33" t="s">
         <v>147</v>
       </c>
@@ -5021,10 +5021,10 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="33" t="s">
         <v>147</v>
       </c>
@@ -5043,10 +5043,10 @@
       <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="33" t="s">
         <v>147</v>
       </c>
@@ -5065,10 +5065,10 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="33" t="s">
         <v>147</v>
       </c>
@@ -5087,10 +5087,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="33" t="s">
         <v>147</v>
       </c>
@@ -5109,10 +5109,10 @@
       <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="33" t="s">
         <v>147</v>
       </c>
@@ -5129,10 +5129,10 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="33" t="s">
         <v>147</v>
       </c>
@@ -5149,10 +5149,10 @@
       <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="33" t="s">
         <v>147</v>
       </c>
@@ -5169,10 +5169,10 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="33" t="s">
         <v>147</v>
       </c>
@@ -5189,10 +5189,10 @@
       <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="33" t="s">
         <v>147</v>
       </c>
@@ -5209,10 +5209,10 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
       <c r="E55" s="33" t="s">
         <v>147</v>
       </c>
@@ -5229,16 +5229,16 @@
       <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
+      <c r="A56" s="64">
         <v>3</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="33" t="s">
@@ -5257,10 +5257,10 @@
       <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="33" t="s">
         <v>149</v>
       </c>
@@ -5277,10 +5277,10 @@
       <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="33" t="s">
         <v>149</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="33" t="s">
         <v>149</v>
       </c>
@@ -5321,10 +5321,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="33" t="s">
         <v>149</v>
       </c>
@@ -5343,10 +5343,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="33" t="s">
         <v>149</v>
       </c>
@@ -5365,10 +5365,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="33" t="s">
         <v>149</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="B63" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="61" t="s">
@@ -5415,7 +5415,7 @@
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="62"/>
       <c r="E64" s="36" t="s">
         <v>33</v>
@@ -5435,7 +5435,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="62"/>
-      <c r="C65" s="59"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="62"/>
       <c r="E65" s="36" t="s">
         <v>33</v>
@@ -5455,7 +5455,7 @@
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="63"/>
-      <c r="C66" s="60"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="63"/>
       <c r="E66" s="36" t="s">
         <v>33</v>
@@ -5479,7 +5479,7 @@
       <c r="B67" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="61" t="s">
@@ -5505,7 +5505,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="59"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="62"/>
       <c r="E68" s="36" t="s">
         <v>148</v>
@@ -5525,7 +5525,7 @@
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="62"/>
-      <c r="C69" s="59"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="62"/>
       <c r="E69" s="36" t="s">
         <v>148</v>
@@ -5545,7 +5545,7 @@
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="62"/>
-      <c r="C70" s="59"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="62"/>
       <c r="E70" s="36" t="s">
         <v>148</v>
@@ -5565,7 +5565,7 @@
     <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
       <c r="B71" s="62"/>
-      <c r="C71" s="59"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="62"/>
       <c r="E71" s="36" t="s">
         <v>148</v>
@@ -5585,7 +5585,7 @@
     <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="59"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="62"/>
       <c r="E72" s="36" t="s">
         <v>148</v>
@@ -5605,7 +5605,7 @@
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="62"/>
-      <c r="C73" s="59"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="62"/>
       <c r="E73" s="36" t="s">
         <v>148</v>
@@ -5625,7 +5625,7 @@
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="59"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="62"/>
       <c r="E74" s="36" t="s">
         <v>148</v>
@@ -5645,7 +5645,7 @@
     <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="63"/>
-      <c r="C75" s="60"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="63"/>
       <c r="E75" s="36" t="s">
         <v>148</v>
@@ -5671,10 +5671,10 @@
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="58" t="s">
         <v>160</v>
       </c>
       <c r="E76" s="37" t="s">
@@ -5695,8 +5695,8 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="37" t="s">
         <v>151</v>
       </c>
@@ -5715,8 +5715,8 @@
     <row r="78" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="37" t="s">
         <v>151</v>
       </c>
@@ -5735,8 +5735,8 @@
     <row r="79" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="64" t="s">
+      <c r="C79" s="59"/>
+      <c r="D79" s="58" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="37" t="s">
@@ -5757,8 +5757,8 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="37" t="s">
         <v>151</v>
       </c>
@@ -5779,8 +5779,8 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="37" t="s">
         <v>151</v>
       </c>
@@ -5799,8 +5799,8 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="37" t="s">
         <v>151</v>
       </c>
@@ -5819,8 +5819,8 @@
     <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="37" t="s">
         <v>151</v>
       </c>
@@ -5841,8 +5841,8 @@
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="37" t="s">
         <v>151</v>
       </c>
@@ -5861,8 +5861,8 @@
     <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="37" t="s">
         <v>151</v>
       </c>
@@ -5883,8 +5883,8 @@
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="37" t="s">
         <v>151</v>
       </c>
@@ -5905,8 +5905,8 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="37" t="s">
         <v>151</v>
       </c>
@@ -5925,8 +5925,8 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="37" t="s">
         <v>151</v>
       </c>
@@ -5945,8 +5945,8 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="37" t="s">
         <v>151</v>
       </c>
@@ -5965,8 +5965,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="37" t="s">
         <v>151</v>
       </c>
@@ -5985,8 +5985,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="37" t="s">
         <v>151</v>
       </c>
@@ -6005,8 +6005,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="37" t="s">
         <v>151</v>
       </c>
@@ -6025,8 +6025,8 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="37"/>
       <c r="F93" s="4">
         <v>92</v>
@@ -6043,8 +6043,8 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="37" t="s">
         <v>151</v>
       </c>
@@ -6063,8 +6063,8 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="37" t="s">
         <v>151</v>
       </c>
@@ -6083,8 +6083,8 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="37" t="s">
         <v>151</v>
       </c>
@@ -6103,8 +6103,8 @@
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="37" t="s">
         <v>151</v>
       </c>
@@ -6123,8 +6123,8 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="37" t="s">
         <v>151</v>
       </c>
@@ -6143,8 +6143,8 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="37" t="s">
         <v>151</v>
       </c>
@@ -6165,8 +6165,8 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="37" t="s">
         <v>151</v>
       </c>
@@ -6185,8 +6185,8 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="37" t="s">
         <v>151</v>
       </c>
@@ -6205,8 +6205,8 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="37" t="s">
         <v>151</v>
       </c>
@@ -6225,8 +6225,8 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="66"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="37" t="s">
         <v>151</v>
       </c>
@@ -6245,7 +6245,7 @@
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="65"/>
+      <c r="C104" s="59"/>
       <c r="D104" s="51" t="s">
         <v>160</v>
       </c>
@@ -6267,7 +6267,7 @@
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="65"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="51" t="s">
         <v>160</v>
       </c>
@@ -6289,7 +6289,7 @@
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="65"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="51" t="s">
         <v>160</v>
       </c>
@@ -6313,7 +6313,7 @@
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="65"/>
+      <c r="C107" s="59"/>
       <c r="D107" s="51" t="s">
         <v>160</v>
       </c>
@@ -6337,7 +6337,7 @@
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="65"/>
+      <c r="C108" s="59"/>
       <c r="D108" s="51" t="s">
         <v>160</v>
       </c>
@@ -6361,7 +6361,7 @@
     <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="65"/>
+      <c r="C109" s="59"/>
       <c r="D109" s="51" t="s">
         <v>160</v>
       </c>
@@ -6385,7 +6385,7 @@
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="65"/>
+      <c r="C110" s="59"/>
       <c r="D110" s="51" t="s">
         <v>160</v>
       </c>
@@ -6409,7 +6409,7 @@
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="65"/>
+      <c r="C111" s="59"/>
       <c r="D111" s="51" t="s">
         <v>160</v>
       </c>
@@ -6431,7 +6431,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="65"/>
+      <c r="C112" s="59"/>
       <c r="D112" s="4" t="s">
         <v>162</v>
       </c>
@@ -6455,7 +6455,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="65"/>
+      <c r="C113" s="59"/>
       <c r="D113" s="39" t="s">
         <v>164</v>
       </c>
@@ -6479,7 +6479,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="65"/>
+      <c r="C114" s="59"/>
       <c r="D114" s="39" t="s">
         <v>164</v>
       </c>
@@ -6503,7 +6503,7 @@
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="65"/>
+      <c r="C115" s="59"/>
       <c r="D115" s="39" t="s">
         <v>164</v>
       </c>
@@ -6525,7 +6525,7 @@
     <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="65"/>
+      <c r="C116" s="59"/>
       <c r="D116" s="39" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="65"/>
+      <c r="C117" s="59"/>
       <c r="D117" s="39" t="s">
         <v>164</v>
       </c>
@@ -6571,7 +6571,7 @@
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="65"/>
+      <c r="C118" s="59"/>
       <c r="D118" s="39" t="s">
         <v>164</v>
       </c>
@@ -6595,7 +6595,7 @@
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="65"/>
+      <c r="C119" s="59"/>
       <c r="D119" s="39" t="s">
         <v>164</v>
       </c>
@@ -6619,7 +6619,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="65"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="39" t="s">
         <v>164</v>
       </c>
@@ -6643,7 +6643,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="65"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="39" t="s">
         <v>164</v>
       </c>
@@ -6667,7 +6667,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="65"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="39" t="s">
         <v>164</v>
       </c>
@@ -6691,7 +6691,7 @@
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="65"/>
+      <c r="C123" s="59"/>
       <c r="D123" s="39" t="s">
         <v>164</v>
       </c>
@@ -6715,7 +6715,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="65"/>
+      <c r="C124" s="59"/>
       <c r="D124" s="4" t="s">
         <v>167</v>
       </c>
@@ -6737,7 +6737,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="65"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="4" t="s">
         <v>167</v>
       </c>
@@ -6759,7 +6759,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="65"/>
+      <c r="C126" s="59"/>
       <c r="D126" s="4" t="s">
         <v>167</v>
       </c>
@@ -6781,7 +6781,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="65"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="4" t="s">
         <v>167</v>
       </c>
@@ -6803,7 +6803,7 @@
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="65"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="4" t="s">
         <v>167</v>
       </c>
@@ -6825,7 +6825,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="65"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="4" t="s">
         <v>169</v>
       </c>
@@ -6847,7 +6847,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="65"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="4" t="s">
         <v>169</v>
       </c>
@@ -6869,7 +6869,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="65"/>
+      <c r="C131" s="59"/>
       <c r="D131" s="4" t="s">
         <v>169</v>
       </c>
@@ -6891,7 +6891,7 @@
     <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="65"/>
+      <c r="C132" s="59"/>
       <c r="D132" s="4" t="s">
         <v>169</v>
       </c>
@@ -6913,7 +6913,7 @@
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="65"/>
+      <c r="C133" s="59"/>
       <c r="D133" s="4" t="s">
         <v>169</v>
       </c>
@@ -6935,7 +6935,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="65"/>
+      <c r="C134" s="59"/>
       <c r="D134" s="4" t="s">
         <v>169</v>
       </c>
@@ -6959,7 +6959,7 @@
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="65"/>
+      <c r="C135" s="59"/>
       <c r="D135" s="4" t="s">
         <v>169</v>
       </c>
@@ -6981,7 +6981,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="65"/>
+      <c r="C136" s="59"/>
       <c r="D136" s="4" t="s">
         <v>169</v>
       </c>
@@ -7003,7 +7003,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="65"/>
+      <c r="C137" s="59"/>
       <c r="D137" s="4" t="s">
         <v>176</v>
       </c>
@@ -7025,7 +7025,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="65"/>
+      <c r="C138" s="59"/>
       <c r="D138" s="4" t="s">
         <v>176</v>
       </c>
@@ -7047,7 +7047,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="65"/>
+      <c r="C139" s="59"/>
       <c r="D139" s="4" t="s">
         <v>176</v>
       </c>
@@ -7069,7 +7069,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="65"/>
+      <c r="C140" s="59"/>
       <c r="D140" s="4" t="s">
         <v>176</v>
       </c>
@@ -7091,7 +7091,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="65"/>
+      <c r="C141" s="59"/>
       <c r="D141" s="4" t="s">
         <v>182</v>
       </c>
@@ -7113,7 +7113,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="65"/>
+      <c r="C142" s="59"/>
       <c r="D142" s="4" t="s">
         <v>182</v>
       </c>
@@ -7135,7 +7135,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="65"/>
+      <c r="C143" s="59"/>
       <c r="D143" s="4" t="s">
         <v>182</v>
       </c>
@@ -7157,7 +7157,7 @@
     <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="65"/>
+      <c r="C144" s="59"/>
       <c r="D144" s="4" t="s">
         <v>182</v>
       </c>
@@ -7179,7 +7179,7 @@
     <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="65"/>
+      <c r="C145" s="59"/>
       <c r="D145" s="4" t="s">
         <v>182</v>
       </c>
@@ -7201,7 +7201,7 @@
     <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="66"/>
+      <c r="C146" s="60"/>
       <c r="D146" s="4" t="s">
         <v>182</v>
       </c>
@@ -8278,7 +8278,9 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="37"/>
-      <c r="F196" s="4"/>
+      <c r="F196" s="4">
+        <v>195</v>
+      </c>
       <c r="G196" s="5"/>
       <c r="H196" s="10"/>
       <c r="I196" s="12"/>
@@ -12249,33 +12251,21 @@
   </sheetData>
   <autoFilter ref="A1:J194"/>
   <customSheetViews>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
+      <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
       <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
       <autoFilter ref="A1:L189"/>
-    </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
-      <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="D79:D103"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="C76:C146"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B56:B62"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C2:C23"/>
@@ -12287,6 +12277,18 @@
     <mergeCell ref="A29:A55"/>
     <mergeCell ref="C29:C55"/>
     <mergeCell ref="D29:D55"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="D79:D103"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="C76:C146"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -13282,11 +13284,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14067,13 +14069,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
-      <selection activeCell="A29" sqref="A29"/>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
+      <selection activeCell="A29" sqref="A29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>

--- a/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
+++ b/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTTOPro\OTTOPro\trunk\03_Testing\QA_Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTTOPro\trunk\03_Testing\QA_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,10 +43,10 @@
     <definedName name="Z_E30A8905_2B28_4BD2_9BAF_B93EE050ACC4_.wvu.FilterData" localSheetId="0" hidden="1">Scenarios!$A$1:$L$189</definedName>
     <definedName name="Z_E890EB7A_B99F_4AA6_95E2_89DC742A5A72_.wvu.FilterData" localSheetId="0" hidden="1">Scenarios!$A$1:$L$174</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2173,14 +2173,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2191,14 +2191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2991,11 +2991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="311719064"/>
-        <c:axId val="311719456"/>
+        <c:axId val="242891520"/>
+        <c:axId val="242893480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311719064"/>
+        <c:axId val="242891520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311719456"/>
+        <c:crossAx val="242893480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311719456"/>
+        <c:axId val="242893480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311719064"/>
+        <c:crossAx val="242891520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4032,7 +4032,7 @@
   <dimension ref="A1:L581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,16 +4083,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4111,10 +4111,10 @@
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="33" t="s">
         <v>150</v>
       </c>
@@ -4131,10 +4131,10 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="33" t="s">
         <v>150</v>
       </c>
@@ -4151,10 +4151,10 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="33" t="s">
         <v>150</v>
       </c>
@@ -4173,10 +4173,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="33" t="s">
         <v>150</v>
       </c>
@@ -4193,10 +4193,10 @@
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="33" t="s">
         <v>150</v>
       </c>
@@ -4213,10 +4213,10 @@
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="33" t="s">
         <v>150</v>
       </c>
@@ -4233,10 +4233,10 @@
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="33" t="s">
         <v>150</v>
       </c>
@@ -4255,10 +4255,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4277,10 +4277,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4297,10 +4297,10 @@
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4317,10 +4317,10 @@
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4337,10 +4337,10 @@
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="33" t="s">
         <v>150</v>
       </c>
@@ -4357,10 +4357,10 @@
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="33" t="s">
         <v>150</v>
       </c>
@@ -4377,10 +4377,10 @@
       <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="33" t="s">
         <v>150</v>
       </c>
@@ -4397,10 +4397,10 @@
       <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="33" t="s">
         <v>150</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="33" t="s">
         <v>150</v>
       </c>
@@ -4437,10 +4437,10 @@
       <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="33" t="s">
         <v>150</v>
       </c>
@@ -4457,10 +4457,10 @@
       <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="33" t="s">
         <v>150</v>
       </c>
@@ -4477,10 +4477,10 @@
       <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="33" t="s">
         <v>150</v>
       </c>
@@ -4497,10 +4497,10 @@
       <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="33" t="s">
         <v>150</v>
       </c>
@@ -4517,10 +4517,10 @@
       <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="33" t="s">
         <v>150</v>
       </c>
@@ -4645,16 +4645,16 @@
       <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
+      <c r="A29" s="58">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="58" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -4673,10 +4673,10 @@
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="33" t="s">
         <v>147</v>
       </c>
@@ -4695,10 +4695,10 @@
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="33" t="s">
         <v>147</v>
       </c>
@@ -4717,10 +4717,10 @@
       <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="33" t="s">
         <v>147</v>
       </c>
@@ -4739,10 +4739,10 @@
       <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="33" t="s">
         <v>147</v>
       </c>
@@ -4761,10 +4761,10 @@
       <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="33" t="s">
         <v>147</v>
       </c>
@@ -4783,10 +4783,10 @@
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="33" t="s">
         <v>147</v>
       </c>
@@ -4805,10 +4805,10 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="33" t="s">
         <v>147</v>
       </c>
@@ -4827,10 +4827,10 @@
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="33" t="s">
         <v>147</v>
       </c>
@@ -4849,10 +4849,10 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33" t="s">
         <v>147</v>
       </c>
@@ -4871,10 +4871,10 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33" t="s">
         <v>147</v>
       </c>
@@ -4893,10 +4893,10 @@
       <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="33" t="s">
         <v>147</v>
       </c>
@@ -4915,10 +4915,10 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="33" t="s">
         <v>147</v>
       </c>
@@ -4937,10 +4937,10 @@
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="33" t="s">
         <v>147</v>
       </c>
@@ -4959,10 +4959,10 @@
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="33" t="s">
         <v>147</v>
       </c>
@@ -4981,10 +4981,10 @@
       <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="33" t="s">
         <v>147</v>
       </c>
@@ -5001,10 +5001,10 @@
       <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="33" t="s">
         <v>147</v>
       </c>
@@ -5021,10 +5021,10 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="33" t="s">
         <v>147</v>
       </c>
@@ -5043,10 +5043,10 @@
       <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="33" t="s">
         <v>147</v>
       </c>
@@ -5065,10 +5065,10 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="33" t="s">
         <v>147</v>
       </c>
@@ -5087,10 +5087,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="33" t="s">
         <v>147</v>
       </c>
@@ -5109,10 +5109,10 @@
       <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33" t="s">
         <v>147</v>
       </c>
@@ -5129,10 +5129,10 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="33" t="s">
         <v>147</v>
       </c>
@@ -5149,10 +5149,10 @@
       <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="33" t="s">
         <v>147</v>
       </c>
@@ -5169,10 +5169,10 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="33" t="s">
         <v>147</v>
       </c>
@@ -5189,10 +5189,10 @@
       <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="33" t="s">
         <v>147</v>
       </c>
@@ -5209,10 +5209,10 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="33" t="s">
         <v>147</v>
       </c>
@@ -5229,16 +5229,16 @@
       <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="A56" s="58">
         <v>3</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="33" t="s">
@@ -5257,10 +5257,10 @@
       <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="33" t="s">
         <v>149</v>
       </c>
@@ -5277,10 +5277,10 @@
       <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="33" t="s">
         <v>149</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="33" t="s">
         <v>149</v>
       </c>
@@ -5321,10 +5321,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="33" t="s">
         <v>149</v>
       </c>
@@ -5343,10 +5343,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="33" t="s">
         <v>149</v>
       </c>
@@ -5365,10 +5365,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="33" t="s">
         <v>149</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="B63" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="61" t="s">
@@ -5415,7 +5415,7 @@
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="65"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="62"/>
       <c r="E64" s="36" t="s">
         <v>33</v>
@@ -5435,7 +5435,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="62"/>
-      <c r="C65" s="65"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="62"/>
       <c r="E65" s="36" t="s">
         <v>33</v>
@@ -5455,7 +5455,7 @@
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="63"/>
-      <c r="C66" s="66"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="63"/>
       <c r="E66" s="36" t="s">
         <v>33</v>
@@ -5479,7 +5479,7 @@
       <c r="B67" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="58" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="61" t="s">
@@ -5505,7 +5505,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="65"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="62"/>
       <c r="E68" s="36" t="s">
         <v>148</v>
@@ -5525,7 +5525,7 @@
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="62"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="62"/>
       <c r="E69" s="36" t="s">
         <v>148</v>
@@ -5545,7 +5545,7 @@
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="62"/>
-      <c r="C70" s="65"/>
+      <c r="C70" s="59"/>
       <c r="D70" s="62"/>
       <c r="E70" s="36" t="s">
         <v>148</v>
@@ -5565,7 +5565,7 @@
     <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
       <c r="B71" s="62"/>
-      <c r="C71" s="65"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="62"/>
       <c r="E71" s="36" t="s">
         <v>148</v>
@@ -5585,7 +5585,7 @@
     <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="65"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="62"/>
       <c r="E72" s="36" t="s">
         <v>148</v>
@@ -5605,7 +5605,7 @@
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="62"/>
-      <c r="C73" s="65"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="62"/>
       <c r="E73" s="36" t="s">
         <v>148</v>
@@ -5625,7 +5625,7 @@
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="65"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="62"/>
       <c r="E74" s="36" t="s">
         <v>148</v>
@@ -5645,7 +5645,7 @@
     <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="63"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="63"/>
       <c r="E75" s="36" t="s">
         <v>148</v>
@@ -5671,10 +5671,10 @@
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="64" t="s">
         <v>160</v>
       </c>
       <c r="E76" s="37" t="s">
@@ -5695,8 +5695,8 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="37" t="s">
         <v>151</v>
       </c>
@@ -5715,8 +5715,8 @@
     <row r="78" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="37" t="s">
         <v>151</v>
       </c>
@@ -5735,8 +5735,8 @@
     <row r="79" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="58" t="s">
+      <c r="C79" s="65"/>
+      <c r="D79" s="64" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="37" t="s">
@@ -5757,8 +5757,8 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="37" t="s">
         <v>151</v>
       </c>
@@ -5779,8 +5779,8 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
       <c r="E81" s="37" t="s">
         <v>151</v>
       </c>
@@ -5799,8 +5799,8 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
       <c r="E82" s="37" t="s">
         <v>151</v>
       </c>
@@ -5819,8 +5819,8 @@
     <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
       <c r="E83" s="37" t="s">
         <v>151</v>
       </c>
@@ -5841,8 +5841,8 @@
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="37" t="s">
         <v>151</v>
       </c>
@@ -5861,8 +5861,8 @@
     <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
       <c r="E85" s="37" t="s">
         <v>151</v>
       </c>
@@ -5883,8 +5883,8 @@
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
       <c r="E86" s="37" t="s">
         <v>151</v>
       </c>
@@ -5905,8 +5905,8 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
       <c r="E87" s="37" t="s">
         <v>151</v>
       </c>
@@ -5925,8 +5925,8 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="37" t="s">
         <v>151</v>
       </c>
@@ -5945,8 +5945,8 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
       <c r="E89" s="37" t="s">
         <v>151</v>
       </c>
@@ -5965,8 +5965,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
       <c r="E90" s="37" t="s">
         <v>151</v>
       </c>
@@ -5985,8 +5985,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
       <c r="E91" s="37" t="s">
         <v>151</v>
       </c>
@@ -6005,8 +6005,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
       <c r="E92" s="37" t="s">
         <v>151</v>
       </c>
@@ -6025,8 +6025,8 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="37"/>
       <c r="F93" s="4">
         <v>92</v>
@@ -6043,8 +6043,8 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
       <c r="E94" s="37" t="s">
         <v>151</v>
       </c>
@@ -6063,8 +6063,8 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
       <c r="E95" s="37" t="s">
         <v>151</v>
       </c>
@@ -6083,8 +6083,8 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
       <c r="E96" s="37" t="s">
         <v>151</v>
       </c>
@@ -6103,8 +6103,8 @@
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
       <c r="E97" s="37" t="s">
         <v>151</v>
       </c>
@@ -6123,8 +6123,8 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
       <c r="E98" s="37" t="s">
         <v>151</v>
       </c>
@@ -6143,8 +6143,8 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
       <c r="E99" s="37" t="s">
         <v>151</v>
       </c>
@@ -6165,8 +6165,8 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
       <c r="E100" s="37" t="s">
         <v>151</v>
       </c>
@@ -6185,8 +6185,8 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
       <c r="E101" s="37" t="s">
         <v>151</v>
       </c>
@@ -6205,8 +6205,8 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="59"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
       <c r="E102" s="37" t="s">
         <v>151</v>
       </c>
@@ -6225,8 +6225,8 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="60"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="37" t="s">
         <v>151</v>
       </c>
@@ -6245,7 +6245,7 @@
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="59"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="51" t="s">
         <v>160</v>
       </c>
@@ -6267,7 +6267,7 @@
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="59"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="51" t="s">
         <v>160</v>
       </c>
@@ -6289,7 +6289,7 @@
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="59"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="51" t="s">
         <v>160</v>
       </c>
@@ -6313,7 +6313,7 @@
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="59"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="51" t="s">
         <v>160</v>
       </c>
@@ -6337,7 +6337,7 @@
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="59"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="51" t="s">
         <v>160</v>
       </c>
@@ -6361,7 +6361,7 @@
     <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="59"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="51" t="s">
         <v>160</v>
       </c>
@@ -6385,7 +6385,7 @@
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="59"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="51" t="s">
         <v>160</v>
       </c>
@@ -6409,7 +6409,7 @@
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="59"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="51" t="s">
         <v>160</v>
       </c>
@@ -6431,7 +6431,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="59"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="4" t="s">
         <v>162</v>
       </c>
@@ -6455,7 +6455,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="59"/>
+      <c r="C113" s="65"/>
       <c r="D113" s="39" t="s">
         <v>164</v>
       </c>
@@ -6479,7 +6479,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="59"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="39" t="s">
         <v>164</v>
       </c>
@@ -6503,7 +6503,7 @@
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="59"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="39" t="s">
         <v>164</v>
       </c>
@@ -6525,7 +6525,7 @@
     <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="59"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="39" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="59"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="39" t="s">
         <v>164</v>
       </c>
@@ -6571,7 +6571,7 @@
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="59"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="39" t="s">
         <v>164</v>
       </c>
@@ -6595,7 +6595,7 @@
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="59"/>
+      <c r="C119" s="65"/>
       <c r="D119" s="39" t="s">
         <v>164</v>
       </c>
@@ -6619,7 +6619,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="59"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="39" t="s">
         <v>164</v>
       </c>
@@ -6643,7 +6643,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="59"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="39" t="s">
         <v>164</v>
       </c>
@@ -6667,7 +6667,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="59"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="39" t="s">
         <v>164</v>
       </c>
@@ -6691,7 +6691,7 @@
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="59"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="39" t="s">
         <v>164</v>
       </c>
@@ -6715,7 +6715,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="59"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="4" t="s">
         <v>167</v>
       </c>
@@ -6737,7 +6737,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="59"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="4" t="s">
         <v>167</v>
       </c>
@@ -6759,7 +6759,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="59"/>
+      <c r="C126" s="65"/>
       <c r="D126" s="4" t="s">
         <v>167</v>
       </c>
@@ -6781,7 +6781,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="59"/>
+      <c r="C127" s="65"/>
       <c r="D127" s="4" t="s">
         <v>167</v>
       </c>
@@ -6803,7 +6803,7 @@
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="59"/>
+      <c r="C128" s="65"/>
       <c r="D128" s="4" t="s">
         <v>167</v>
       </c>
@@ -6825,7 +6825,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="59"/>
+      <c r="C129" s="65"/>
       <c r="D129" s="4" t="s">
         <v>169</v>
       </c>
@@ -6847,7 +6847,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="59"/>
+      <c r="C130" s="65"/>
       <c r="D130" s="4" t="s">
         <v>169</v>
       </c>
@@ -6869,7 +6869,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="59"/>
+      <c r="C131" s="65"/>
       <c r="D131" s="4" t="s">
         <v>169</v>
       </c>
@@ -6891,7 +6891,7 @@
     <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="59"/>
+      <c r="C132" s="65"/>
       <c r="D132" s="4" t="s">
         <v>169</v>
       </c>
@@ -6913,7 +6913,7 @@
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="59"/>
+      <c r="C133" s="65"/>
       <c r="D133" s="4" t="s">
         <v>169</v>
       </c>
@@ -6935,7 +6935,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="59"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="4" t="s">
         <v>169</v>
       </c>
@@ -6959,7 +6959,7 @@
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="59"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="4" t="s">
         <v>169</v>
       </c>
@@ -6981,7 +6981,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="59"/>
+      <c r="C136" s="65"/>
       <c r="D136" s="4" t="s">
         <v>169</v>
       </c>
@@ -7003,7 +7003,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="59"/>
+      <c r="C137" s="65"/>
       <c r="D137" s="4" t="s">
         <v>176</v>
       </c>
@@ -7025,7 +7025,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="59"/>
+      <c r="C138" s="65"/>
       <c r="D138" s="4" t="s">
         <v>176</v>
       </c>
@@ -7047,7 +7047,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="59"/>
+      <c r="C139" s="65"/>
       <c r="D139" s="4" t="s">
         <v>176</v>
       </c>
@@ -7069,7 +7069,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="59"/>
+      <c r="C140" s="65"/>
       <c r="D140" s="4" t="s">
         <v>176</v>
       </c>
@@ -7091,7 +7091,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="59"/>
+      <c r="C141" s="65"/>
       <c r="D141" s="4" t="s">
         <v>182</v>
       </c>
@@ -7113,7 +7113,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="59"/>
+      <c r="C142" s="65"/>
       <c r="D142" s="4" t="s">
         <v>182</v>
       </c>
@@ -7135,7 +7135,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="59"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="4" t="s">
         <v>182</v>
       </c>
@@ -7157,7 +7157,7 @@
     <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="59"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="4" t="s">
         <v>182</v>
       </c>
@@ -7179,7 +7179,7 @@
     <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="59"/>
+      <c r="C145" s="65"/>
       <c r="D145" s="4" t="s">
         <v>182</v>
       </c>
@@ -7201,7 +7201,7 @@
     <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="60"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="4" t="s">
         <v>182</v>
       </c>
@@ -8290,7 +8290,9 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="37"/>
-      <c r="F197" s="4"/>
+      <c r="F197" s="4">
+        <v>196</v>
+      </c>
       <c r="G197" s="5"/>
       <c r="H197" s="10"/>
       <c r="I197" s="12"/>
@@ -12251,21 +12253,33 @@
   </sheetData>
   <autoFilter ref="A1:J194"/>
   <customSheetViews>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
+      <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+      <autoFilter ref="A1:L189"/>
+    </customSheetView>
     <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
       <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
-      <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
-      <autoFilter ref="A1:L189"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="D79:D103"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="C76:C146"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="B56:B62"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C2:C23"/>
@@ -12277,18 +12291,6 @@
     <mergeCell ref="A29:A55"/>
     <mergeCell ref="C29:C55"/>
     <mergeCell ref="D29:D55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="D79:D103"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="C76:C146"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -13284,11 +13286,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14069,13 +14071,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
+      <selection activeCell="A29" sqref="A29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
-      <selection activeCell="A29" sqref="A29"/>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>

--- a/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
+++ b/trunk/03_Testing/QA_Testing/Scenarios_OTTOPro_Project.v5.2.xlsx
@@ -45,8 +45,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Sandeep Kumar - Personal View" guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Susmy - Personal View" guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2173,14 +2173,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2191,14 +2191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2991,11 +2991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="242891520"/>
-        <c:axId val="242893480"/>
+        <c:axId val="171329080"/>
+        <c:axId val="204655488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242891520"/>
+        <c:axId val="171329080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242893480"/>
+        <c:crossAx val="204655488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242893480"/>
+        <c:axId val="204655488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242891520"/>
+        <c:crossAx val="171329080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4083,16 +4083,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4111,10 +4111,10 @@
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="33" t="s">
         <v>150</v>
       </c>
@@ -4131,10 +4131,10 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="33" t="s">
         <v>150</v>
       </c>
@@ -4151,10 +4151,10 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="33" t="s">
         <v>150</v>
       </c>
@@ -4173,10 +4173,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="33" t="s">
         <v>150</v>
       </c>
@@ -4193,10 +4193,10 @@
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="33" t="s">
         <v>150</v>
       </c>
@@ -4213,10 +4213,10 @@
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="33" t="s">
         <v>150</v>
       </c>
@@ -4233,10 +4233,10 @@
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="33" t="s">
         <v>150</v>
       </c>
@@ -4255,10 +4255,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4277,10 +4277,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4297,10 +4297,10 @@
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4317,10 +4317,10 @@
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4337,10 +4337,10 @@
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="33" t="s">
         <v>150</v>
       </c>
@@ -4357,10 +4357,10 @@
       <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="33" t="s">
         <v>150</v>
       </c>
@@ -4377,10 +4377,10 @@
       <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="33" t="s">
         <v>150</v>
       </c>
@@ -4397,10 +4397,10 @@
       <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="33" t="s">
         <v>150</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="33" t="s">
         <v>150</v>
       </c>
@@ -4437,10 +4437,10 @@
       <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="33" t="s">
         <v>150</v>
       </c>
@@ -4457,10 +4457,10 @@
       <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="33" t="s">
         <v>150</v>
       </c>
@@ -4477,10 +4477,10 @@
       <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="33" t="s">
         <v>150</v>
       </c>
@@ -4497,10 +4497,10 @@
       <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="33" t="s">
         <v>150</v>
       </c>
@@ -4517,10 +4517,10 @@
       <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="33" t="s">
         <v>150</v>
       </c>
@@ -4645,16 +4645,16 @@
       <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="64">
         <v>2</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="64" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -4673,10 +4673,10 @@
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="33" t="s">
         <v>147</v>
       </c>
@@ -4695,10 +4695,10 @@
       <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="33" t="s">
         <v>147</v>
       </c>
@@ -4717,10 +4717,10 @@
       <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="33" t="s">
         <v>147</v>
       </c>
@@ -4739,10 +4739,10 @@
       <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="33" t="s">
         <v>147</v>
       </c>
@@ -4761,10 +4761,10 @@
       <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="33" t="s">
         <v>147</v>
       </c>
@@ -4783,10 +4783,10 @@
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="33" t="s">
         <v>147</v>
       </c>
@@ -4805,10 +4805,10 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="33" t="s">
         <v>147</v>
       </c>
@@ -4827,10 +4827,10 @@
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="33" t="s">
         <v>147</v>
       </c>
@@ -4849,10 +4849,10 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="33" t="s">
         <v>147</v>
       </c>
@@ -4871,10 +4871,10 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="33" t="s">
         <v>147</v>
       </c>
@@ -4893,10 +4893,10 @@
       <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="33" t="s">
         <v>147</v>
       </c>
@@ -4915,10 +4915,10 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="33" t="s">
         <v>147</v>
       </c>
@@ -4937,10 +4937,10 @@
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="33" t="s">
         <v>147</v>
       </c>
@@ -4959,10 +4959,10 @@
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="33" t="s">
         <v>147</v>
       </c>
@@ -4981,10 +4981,10 @@
       <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="33" t="s">
         <v>147</v>
       </c>
@@ -5001,10 +5001,10 @@
       <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="33" t="s">
         <v>147</v>
       </c>
@@ -5021,10 +5021,10 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="33" t="s">
         <v>147</v>
       </c>
@@ -5043,10 +5043,10 @@
       <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="33" t="s">
         <v>147</v>
       </c>
@@ -5065,10 +5065,10 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="33" t="s">
         <v>147</v>
       </c>
@@ -5087,10 +5087,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="33" t="s">
         <v>147</v>
       </c>
@@ -5109,10 +5109,10 @@
       <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="33" t="s">
         <v>147</v>
       </c>
@@ -5129,10 +5129,10 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="33" t="s">
         <v>147</v>
       </c>
@@ -5149,10 +5149,10 @@
       <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="33" t="s">
         <v>147</v>
       </c>
@@ -5169,10 +5169,10 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="33" t="s">
         <v>147</v>
       </c>
@@ -5189,10 +5189,10 @@
       <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="33" t="s">
         <v>147</v>
       </c>
@@ -5209,10 +5209,10 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
       <c r="E55" s="33" t="s">
         <v>147</v>
       </c>
@@ -5229,16 +5229,16 @@
       <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
+      <c r="A56" s="64">
         <v>3</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="33" t="s">
@@ -5257,10 +5257,10 @@
       <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="33" t="s">
         <v>149</v>
       </c>
@@ -5277,10 +5277,10 @@
       <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="33" t="s">
         <v>149</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="33" t="s">
         <v>149</v>
       </c>
@@ -5321,10 +5321,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="33" t="s">
         <v>149</v>
       </c>
@@ -5343,10 +5343,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="33" t="s">
         <v>149</v>
       </c>
@@ -5365,10 +5365,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="33" t="s">
         <v>149</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="B63" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="61" t="s">
@@ -5415,7 +5415,7 @@
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="62"/>
       <c r="E64" s="36" t="s">
         <v>33</v>
@@ -5435,7 +5435,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="62"/>
-      <c r="C65" s="59"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="62"/>
       <c r="E65" s="36" t="s">
         <v>33</v>
@@ -5455,7 +5455,7 @@
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="63"/>
-      <c r="C66" s="60"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="63"/>
       <c r="E66" s="36" t="s">
         <v>33</v>
@@ -5479,7 +5479,7 @@
       <c r="B67" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D67" s="61" t="s">
@@ -5505,7 +5505,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="59"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="62"/>
       <c r="E68" s="36" t="s">
         <v>148</v>
@@ -5525,7 +5525,7 @@
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="62"/>
-      <c r="C69" s="59"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="62"/>
       <c r="E69" s="36" t="s">
         <v>148</v>
@@ -5545,7 +5545,7 @@
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="62"/>
-      <c r="C70" s="59"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="62"/>
       <c r="E70" s="36" t="s">
         <v>148</v>
@@ -5565,7 +5565,7 @@
     <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
       <c r="B71" s="62"/>
-      <c r="C71" s="59"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="62"/>
       <c r="E71" s="36" t="s">
         <v>148</v>
@@ -5585,7 +5585,7 @@
     <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="59"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="62"/>
       <c r="E72" s="36" t="s">
         <v>148</v>
@@ -5605,7 +5605,7 @@
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="62"/>
       <c r="B73" s="62"/>
-      <c r="C73" s="59"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="62"/>
       <c r="E73" s="36" t="s">
         <v>148</v>
@@ -5625,7 +5625,7 @@
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="62"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="59"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="62"/>
       <c r="E74" s="36" t="s">
         <v>148</v>
@@ -5645,7 +5645,7 @@
     <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="63"/>
-      <c r="C75" s="60"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="63"/>
       <c r="E75" s="36" t="s">
         <v>148</v>
@@ -5671,10 +5671,10 @@
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="58" t="s">
         <v>160</v>
       </c>
       <c r="E76" s="37" t="s">
@@ -5695,8 +5695,8 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="37" t="s">
         <v>151</v>
       </c>
@@ -5715,8 +5715,8 @@
     <row r="78" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="37" t="s">
         <v>151</v>
       </c>
@@ -5735,8 +5735,8 @@
     <row r="79" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="64" t="s">
+      <c r="C79" s="59"/>
+      <c r="D79" s="58" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="37" t="s">
@@ -5757,8 +5757,8 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="37" t="s">
         <v>151</v>
       </c>
@@ -5779,8 +5779,8 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="37" t="s">
         <v>151</v>
       </c>
@@ -5799,8 +5799,8 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="37" t="s">
         <v>151</v>
       </c>
@@ -5819,8 +5819,8 @@
     <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="37" t="s">
         <v>151</v>
       </c>
@@ -5841,8 +5841,8 @@
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="37" t="s">
         <v>151</v>
       </c>
@@ -5861,8 +5861,8 @@
     <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="37" t="s">
         <v>151</v>
       </c>
@@ -5883,8 +5883,8 @@
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="37" t="s">
         <v>151</v>
       </c>
@@ -5905,8 +5905,8 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="37" t="s">
         <v>151</v>
       </c>
@@ -5925,8 +5925,8 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="37" t="s">
         <v>151</v>
       </c>
@@ -5945,8 +5945,8 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="37" t="s">
         <v>151</v>
       </c>
@@ -5965,8 +5965,8 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="37" t="s">
         <v>151</v>
       </c>
@@ -5985,8 +5985,8 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="37" t="s">
         <v>151</v>
       </c>
@@ -6005,8 +6005,8 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="37" t="s">
         <v>151</v>
       </c>
@@ -6025,8 +6025,8 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="37"/>
       <c r="F93" s="4">
         <v>92</v>
@@ -6043,8 +6043,8 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="37" t="s">
         <v>151</v>
       </c>
@@ -6063,8 +6063,8 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="37" t="s">
         <v>151</v>
       </c>
@@ -6083,8 +6083,8 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="37" t="s">
         <v>151</v>
       </c>
@@ -6103,8 +6103,8 @@
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="37" t="s">
         <v>151</v>
       </c>
@@ -6123,8 +6123,8 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="37" t="s">
         <v>151</v>
       </c>
@@ -6143,8 +6143,8 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="37" t="s">
         <v>151</v>
       </c>
@@ -6165,8 +6165,8 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="37" t="s">
         <v>151</v>
       </c>
@@ -6185,8 +6185,8 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="37" t="s">
         <v>151</v>
       </c>
@@ -6205,8 +6205,8 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="37" t="s">
         <v>151</v>
       </c>
@@ -6225,8 +6225,8 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="66"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="37" t="s">
         <v>151</v>
       </c>
@@ -6245,7 +6245,7 @@
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="65"/>
+      <c r="C104" s="59"/>
       <c r="D104" s="51" t="s">
         <v>160</v>
       </c>
@@ -6267,7 +6267,7 @@
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="65"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="51" t="s">
         <v>160</v>
       </c>
@@ -6289,7 +6289,7 @@
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="65"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="51" t="s">
         <v>160</v>
       </c>
@@ -6313,7 +6313,7 @@
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="65"/>
+      <c r="C107" s="59"/>
       <c r="D107" s="51" t="s">
         <v>160</v>
       </c>
@@ -6337,7 +6337,7 @@
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="65"/>
+      <c r="C108" s="59"/>
       <c r="D108" s="51" t="s">
         <v>160</v>
       </c>
@@ -6361,7 +6361,7 @@
     <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="65"/>
+      <c r="C109" s="59"/>
       <c r="D109" s="51" t="s">
         <v>160</v>
       </c>
@@ -6385,7 +6385,7 @@
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="65"/>
+      <c r="C110" s="59"/>
       <c r="D110" s="51" t="s">
         <v>160</v>
       </c>
@@ -6409,7 +6409,7 @@
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="65"/>
+      <c r="C111" s="59"/>
       <c r="D111" s="51" t="s">
         <v>160</v>
       </c>
@@ -6431,7 +6431,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="65"/>
+      <c r="C112" s="59"/>
       <c r="D112" s="4" t="s">
         <v>162</v>
       </c>
@@ -6455,7 +6455,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="65"/>
+      <c r="C113" s="59"/>
       <c r="D113" s="39" t="s">
         <v>164</v>
       </c>
@@ -6479,7 +6479,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="65"/>
+      <c r="C114" s="59"/>
       <c r="D114" s="39" t="s">
         <v>164</v>
       </c>
@@ -6503,7 +6503,7 @@
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="65"/>
+      <c r="C115" s="59"/>
       <c r="D115" s="39" t="s">
         <v>164</v>
       </c>
@@ -6525,7 +6525,7 @@
     <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="65"/>
+      <c r="C116" s="59"/>
       <c r="D116" s="39" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="65"/>
+      <c r="C117" s="59"/>
       <c r="D117" s="39" t="s">
         <v>164</v>
       </c>
@@ -6571,7 +6571,7 @@
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="65"/>
+      <c r="C118" s="59"/>
       <c r="D118" s="39" t="s">
         <v>164</v>
       </c>
@@ -6595,7 +6595,7 @@
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="65"/>
+      <c r="C119" s="59"/>
       <c r="D119" s="39" t="s">
         <v>164</v>
       </c>
@@ -6619,7 +6619,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="65"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="39" t="s">
         <v>164</v>
       </c>
@@ -6643,7 +6643,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="65"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="39" t="s">
         <v>164</v>
       </c>
@@ -6667,7 +6667,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="65"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="39" t="s">
         <v>164</v>
       </c>
@@ -6691,7 +6691,7 @@
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="65"/>
+      <c r="C123" s="59"/>
       <c r="D123" s="39" t="s">
         <v>164</v>
       </c>
@@ -6715,7 +6715,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="65"/>
+      <c r="C124" s="59"/>
       <c r="D124" s="4" t="s">
         <v>167</v>
       </c>
@@ -6737,7 +6737,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="65"/>
+      <c r="C125" s="59"/>
       <c r="D125" s="4" t="s">
         <v>167</v>
       </c>
@@ -6759,7 +6759,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="65"/>
+      <c r="C126" s="59"/>
       <c r="D126" s="4" t="s">
         <v>167</v>
       </c>
@@ -6781,7 +6781,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="65"/>
+      <c r="C127" s="59"/>
       <c r="D127" s="4" t="s">
         <v>167</v>
       </c>
@@ -6803,7 +6803,7 @@
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="65"/>
+      <c r="C128" s="59"/>
       <c r="D128" s="4" t="s">
         <v>167</v>
       </c>
@@ -6825,7 +6825,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="65"/>
+      <c r="C129" s="59"/>
       <c r="D129" s="4" t="s">
         <v>169</v>
       </c>
@@ -6847,7 +6847,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="65"/>
+      <c r="C130" s="59"/>
       <c r="D130" s="4" t="s">
         <v>169</v>
       </c>
@@ -6869,7 +6869,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="65"/>
+      <c r="C131" s="59"/>
       <c r="D131" s="4" t="s">
         <v>169</v>
       </c>
@@ -6891,7 +6891,7 @@
     <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="65"/>
+      <c r="C132" s="59"/>
       <c r="D132" s="4" t="s">
         <v>169</v>
       </c>
@@ -6913,7 +6913,7 @@
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="65"/>
+      <c r="C133" s="59"/>
       <c r="D133" s="4" t="s">
         <v>169</v>
       </c>
@@ -6935,7 +6935,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="65"/>
+      <c r="C134" s="59"/>
       <c r="D134" s="4" t="s">
         <v>169</v>
       </c>
@@ -6959,7 +6959,7 @@
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="65"/>
+      <c r="C135" s="59"/>
       <c r="D135" s="4" t="s">
         <v>169</v>
       </c>
@@ -6981,7 +6981,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="65"/>
+      <c r="C136" s="59"/>
       <c r="D136" s="4" t="s">
         <v>169</v>
       </c>
@@ -7003,7 +7003,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="65"/>
+      <c r="C137" s="59"/>
       <c r="D137" s="4" t="s">
         <v>176</v>
       </c>
@@ -7025,7 +7025,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="65"/>
+      <c r="C138" s="59"/>
       <c r="D138" s="4" t="s">
         <v>176</v>
       </c>
@@ -7047,7 +7047,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="65"/>
+      <c r="C139" s="59"/>
       <c r="D139" s="4" t="s">
         <v>176</v>
       </c>
@@ -7069,7 +7069,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="65"/>
+      <c r="C140" s="59"/>
       <c r="D140" s="4" t="s">
         <v>176</v>
       </c>
@@ -7091,7 +7091,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="65"/>
+      <c r="C141" s="59"/>
       <c r="D141" s="4" t="s">
         <v>182</v>
       </c>
@@ -7113,7 +7113,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="65"/>
+      <c r="C142" s="59"/>
       <c r="D142" s="4" t="s">
         <v>182</v>
       </c>
@@ -7135,7 +7135,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="65"/>
+      <c r="C143" s="59"/>
       <c r="D143" s="4" t="s">
         <v>182</v>
       </c>
@@ -7157,7 +7157,7 @@
     <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="65"/>
+      <c r="C144" s="59"/>
       <c r="D144" s="4" t="s">
         <v>182</v>
       </c>
@@ -7179,7 +7179,7 @@
     <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="65"/>
+      <c r="C145" s="59"/>
       <c r="D145" s="4" t="s">
         <v>182</v>
       </c>
@@ -7201,7 +7201,7 @@
     <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="66"/>
+      <c r="C146" s="60"/>
       <c r="D146" s="4" t="s">
         <v>182</v>
       </c>
@@ -8290,9 +8290,7 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="37"/>
-      <c r="F197" s="4">
-        <v>196</v>
-      </c>
+      <c r="F197" s="4"/>
       <c r="G197" s="5"/>
       <c r="H197" s="10"/>
       <c r="I197" s="12"/>
@@ -12253,33 +12251,21 @@
   </sheetData>
   <autoFilter ref="A1:J194"/>
   <customSheetViews>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
+      <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" showAutoFilter="1" topLeftCell="C1">
       <pane xSplit="2" ySplit="22" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
       <autoFilter ref="A1:L189"/>
-    </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" topLeftCell="C1">
-      <pane xSplit="2" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F169" sqref="F169:F174"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="D79:D103"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="C76:C146"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B56:B62"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C2:C23"/>
@@ -12291,6 +12277,18 @@
     <mergeCell ref="A29:A55"/>
     <mergeCell ref="C29:C55"/>
     <mergeCell ref="D29:D55"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="D79:D103"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="C76:C146"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -13286,11 +13284,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}">
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}">
       <selection activeCell="E14" sqref="E14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14071,13 +14069,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
-      <selection activeCell="A29" sqref="A29"/>
+    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{9EC2FED4-EF55-4064-9979-F9B6C2B04BE7}" hiddenColumns="1">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <customSheetView guid="{9750D5B6-D70D-4F18-8727-3774CAEBC2EE}" hiddenColumns="1">
+      <selection activeCell="A29" sqref="A29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
